--- a/graphs/STM32F/kalman/kalman.xlsx
+++ b/graphs/STM32F/kalman/kalman.xlsx
@@ -1,56 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loict\Desktop\Stage_vertics\graphs\STM32F\kalman\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A4E0B9-DA6D-4955-910E-2A6BA3B6C354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="kalman" sheetId="1" r:id="rId1"/>
+    <sheet name="kalman CF_DR" sheetId="2" r:id="rId1"/>
+    <sheet name="kalman CC_DR" sheetId="3" r:id="rId2"/>
+    <sheet name="kalman CF_DC" sheetId="4" r:id="rId3"/>
+    <sheet name="kalman CC_DC" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">CF DR 24 </t>
-  </si>
-  <si>
-    <t>CC DR 24</t>
-  </si>
-  <si>
-    <t>CF DC 24</t>
-  </si>
-  <si>
-    <t>CC DC 24</t>
-  </si>
-  <si>
-    <t>CF DR 48</t>
-  </si>
-  <si>
-    <t>CC DR 48</t>
-  </si>
-  <si>
-    <t>CF DC 48</t>
-  </si>
-  <si>
-    <t>CC DC 48</t>
-  </si>
-  <si>
-    <t>CF DR 72</t>
-  </si>
-  <si>
-    <t>CC DR 72</t>
-  </si>
-  <si>
-    <t>CF DC 72</t>
-  </si>
-  <si>
-    <t>CC DC 72</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>intensity</t>
   </si>
@@ -95,13 +68,25 @@
   </si>
   <si>
     <t>(5944.6, 5969.98)</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,10 +97,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,6 +146,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -451,175 +441,321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13560.198965342899</v>
+      </c>
+      <c r="C2">
+        <v>23233.011216617371</v>
+      </c>
+      <c r="D2">
+        <v>30859.812479170541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.014E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>2210.5836353302002</v>
+      </c>
+      <c r="C5">
+        <v>2310.8017616271968</v>
+      </c>
+      <c r="D5">
+        <v>2566.3020057678218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12849.88117991077</v>
+      </c>
+      <c r="C2">
+        <v>22856.105235777679</v>
+      </c>
+      <c r="D2">
+        <v>30733.708740187929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5.4280000000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.1260000000000003E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.6280000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>2301.7221164703369</v>
+      </c>
+      <c r="C5">
+        <v>2357.790103912354</v>
+      </c>
+      <c r="D5">
+        <v>2665.3501567840581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13481.997561636919</v>
+      </c>
+      <c r="C2">
+        <v>23179.846849608391</v>
+      </c>
+      <c r="D2">
+        <v>30880.63845005248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.9739999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.972E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.5159999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>2212.962043762207</v>
+      </c>
+      <c r="C5">
+        <v>2273.3866596221919</v>
+      </c>
+      <c r="D5">
+        <v>2563.957649230957</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2">
+        <v>12793.5170512159</v>
+      </c>
+      <c r="C2">
+        <v>22877.33592877513</v>
+      </c>
+      <c r="D2">
+        <v>31037.30657891649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3">
+        <v>5.4260000000000003E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.134E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.538E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>13560.1989653429</v>
-      </c>
-      <c r="C2">
-        <v>12849.88117991077</v>
-      </c>
-      <c r="D2">
-        <v>13481.99756163692</v>
-      </c>
-      <c r="E2">
-        <v>12793.5170512159</v>
-      </c>
-      <c r="F2">
-        <v>23233.01121661737</v>
-      </c>
-      <c r="G2">
-        <v>22856.10523577768</v>
-      </c>
-      <c r="H2">
-        <v>23179.84684960839</v>
-      </c>
-      <c r="I2">
-        <v>22877.33592877513</v>
-      </c>
-      <c r="J2">
-        <v>30859.81247917054</v>
-      </c>
-      <c r="K2">
-        <v>30733.70874018793</v>
-      </c>
-      <c r="L2">
-        <v>30880.63845005248</v>
-      </c>
-      <c r="M2">
-        <v>31037.30657891649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>0.0494</v>
-      </c>
-      <c r="C3">
-        <v>0.05428</v>
-      </c>
-      <c r="D3">
-        <v>0.04974</v>
-      </c>
-      <c r="E3">
-        <v>0.05426</v>
-      </c>
-      <c r="F3">
-        <v>0.03014</v>
-      </c>
-      <c r="G3">
-        <v>0.03126</v>
-      </c>
-      <c r="H3">
-        <v>0.02972</v>
-      </c>
-      <c r="I3">
-        <v>0.03134</v>
-      </c>
-      <c r="J3">
-        <v>0.0252</v>
-      </c>
-      <c r="K3">
-        <v>0.02628</v>
-      </c>
-      <c r="L3">
-        <v>0.02516</v>
-      </c>
-      <c r="M3">
-        <v>0.02538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
+      <c r="B5">
+        <v>2290.7815761566162</v>
+      </c>
+      <c r="C5">
+        <v>2366.0198364257808</v>
+      </c>
+      <c r="D5">
+        <v>2599.4985752105708</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/graphs/STM32F/kalman/kalman.xlsx
+++ b/graphs/STM32F/kalman/kalman.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data_RAM code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="data_RAM code_CCM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="data_CCM code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="data_CCM code_CCM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data_RAM-code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_RAM-code_CCM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data_CCM-code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data_CCM-code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
